--- a/documento/tablas/enfermedades_relacionadas.xlsx
+++ b/documento/tablas/enfermedades_relacionadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Dropbox/Transporte_interno/Máster/Ciencia de Datos/TFM/documento/tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77410D-409F-214E-A523-141ADFF5DB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDF98A-7FD6-AE42-B65C-6AF3B7F6E531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="1660" windowWidth="17140" windowHeight="16940" xr2:uid="{DB562D7C-6A96-4B44-A485-4EBF41A44D3F}"/>
+    <workbookView xWindow="17820" yWindow="1660" windowWidth="15780" windowHeight="16940" xr2:uid="{DB562D7C-6A96-4B44-A485-4EBF41A44D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -752,12 +752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A46E69C-9AE6-CE40-BEF0-4BB402595482}">
   <dimension ref="A3:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="6" width="22.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
